--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07c6c533a64b77b8/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048B029DA474A5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95DF1969-11D7-49CD-BA70-740531793F44}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048B029DA474A5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E31CF3C-9EE7-4B1E-A641-CC2147C233E7}"/>
   <bookViews>
     <workbookView xWindow="2745" yWindow="1770" windowWidth="24870" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,15 +24,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>trmp (C)</t>
+  </si>
+  <si>
+    <t>time (min)</t>
+  </si>
+  <si>
+    <t>°°°°</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -125,6 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,7 +167,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -195,6 +216,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trmp (C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -251,6 +283,16 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F9B0-43CB-A553-D81FA73A6C7B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
@@ -260,6 +302,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="0&quot;°C&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -405,6 +448,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time (min)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1626,15 +1680,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="G23:X24"/>
+  <dimension ref="F13:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="23" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U13" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
       <c r="G23" s="1">
         <v>20</v>
       </c>
@@ -1674,7 +1736,10 @@
       <c r="W23" s="2"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
@@ -1716,6 +1781,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>